--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/all-profiles.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:27:19+00:00</t>
+    <t>2025-08-21T11:48:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/all-profiles.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:48:05+00:00</t>
+    <t>2025-08-21T11:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/all-profiles.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:51:57+00:00</t>
+    <t>2025-08-21T12:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/all-profiles.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:47:24+00:00</t>
+    <t>2025-09-05T12:53:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
